--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail10 Features.xlsx
@@ -3957,7 +3957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3968,29 +3968,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4011,115 +4009,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4136,72 +4124,66 @@
         <v>3.496983426769166e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1285615050042452</v>
+        <v>1.36466862529379e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.5714099722385901</v>
+        <v>1.574245749153527e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.36466862529379e-07</v>
+        <v>-0.003545096476647453</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.574245749153527e-06</v>
+        <v>0.2555150668559555</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.003545096476647453</v>
+        <v>0.06528169375567726</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2555150668559555</v>
+        <v>1.832198711420824</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06528169375567726</v>
+        <v>2.45117813248359</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.808155632052592</v>
+        <v>5.005036332833241</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.45117813248359</v>
+        <v>3.834470312798999e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.005036332833241</v>
+        <v>3162836398.972839</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.834470312798999e-17</v>
+        <v>3.735413296010901e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3162836398.972839</v>
+        <v>383.5825447839928</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.735413296010901e-08</v>
+        <v>6.100005105018381e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>383.5825447839928</v>
+        <v>7.331152384983576</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.100005105018381e-05</v>
+        <v>1.734192128175276</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.331152384983576</v>
+        <v>0.003278496256535602</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.734192128175276</v>
+        <v>4.615838469385763</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.003278496256535602</v>
+        <v>0.9595312301165577</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.615838469385763</v>
+        <v>1.424244827145665</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9595312301165577</v>
+        <v>44</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.424244827145665</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.13787430753813</v>
       </c>
     </row>
@@ -4216,72 +4198,66 @@
         <v>3.545839344649009e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.08079179255022749</v>
+        <v>1.402167562577603e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.5496946010204211</v>
+        <v>1.573946151269547e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.402167562577603e-07</v>
+        <v>-0.01320521718009829</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.573946151269547e-06</v>
+        <v>0.2443881950006678</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01320521718009829</v>
+        <v>0.0598819392054372</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2443881950006678</v>
+        <v>1.854330770918347</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0598819392054372</v>
+        <v>2.316676797494369</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.83317972799042</v>
+        <v>4.992469618127933</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.316676797494369</v>
+        <v>3.85379835857166e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.992469618127933</v>
+        <v>3326108045.23455</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.85379835857166e-17</v>
+        <v>3.590712953786061e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3326108045.23455</v>
+        <v>426.345509258654</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.590712953786061e-08</v>
+        <v>6.541529131036856e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>426.345509258654</v>
+        <v>8.583976827091798</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.541529131036856e-05</v>
+        <v>1.585858668651615</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.583976827091798</v>
+        <v>0.004820103379167852</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.585858668651615</v>
+        <v>4.504408636340894</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.004820103379167852</v>
+        <v>0.9588332099983481</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.504408636340894</v>
+        <v>1.395022613313899</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9588332099983481</v>
+        <v>38</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.395022613313899</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.219707259473989</v>
       </c>
     </row>
@@ -4296,72 +4272,66 @@
         <v>3.643600579722956e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.02133503163445814</v>
+        <v>1.444265989042826e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5706872939123775</v>
+        <v>1.573198713969976e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.444265989042826e-07</v>
+        <v>-0.0300067943049936</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.573198713969976e-06</v>
+        <v>0.2032311207897661</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0300067943049936</v>
+        <v>0.04213293311930092</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2032311207897661</v>
+        <v>1.870322254181076</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04213293311930092</v>
+        <v>2.381240021673579</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.859575405578866</v>
+        <v>4.984511450896123</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.381240021673579</v>
+        <v>3.866113970642466e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.984511450896123</v>
+        <v>3332129833.922506</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.866113970642466e-17</v>
+        <v>3.592194149081779e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3332129833.922506</v>
+        <v>429.2580838984303</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.592194149081779e-08</v>
+        <v>6.30202348370074e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>429.2580838984303</v>
+        <v>7.868946633719833</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>6.30202348370074e-05</v>
+        <v>1.413519294875402</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.868946633719833</v>
+        <v>0.00390223317843823</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.413519294875402</v>
+        <v>4.497458221512561</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00390223317843823</v>
+        <v>0.9595157722458325</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.497458221512561</v>
+        <v>1.30747801382982</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9595157722458325</v>
+        <v>36</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.30747801382982</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.357141741410045</v>
       </c>
     </row>
@@ -4376,72 +4346,66 @@
         <v>3.762081579704548e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.0006029590664658483</v>
+        <v>1.493091007573362e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.6113042530954682</v>
+        <v>1.571775142580918e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.493091007573362e-07</v>
+        <v>-0.04604613625768349</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.571775142580918e-06</v>
+        <v>0.1565680274990565</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04604613625768349</v>
+        <v>0.02659406757977872</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1565680274990565</v>
+        <v>1.875110549133709</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02659406757977872</v>
+        <v>2.507223519748192</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.862934549380586</v>
+        <v>5.141039864825329</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.507223519748192</v>
+        <v>4.376613617060119e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.141039864825329</v>
+        <v>2855568983.200271</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.376613617060119e-17</v>
+        <v>4.188814544951065e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2855568983.200271</v>
+        <v>356.8810757893324</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.188814544951065e-08</v>
+        <v>6.078127905195009e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>356.8810757893324</v>
+        <v>7.669701776033953</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>6.078127905195009e-05</v>
+        <v>1.570836826085321</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.669701776033953</v>
+        <v>0.003575417733125905</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.570836826085321</v>
+        <v>4.588883395871006</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.003575417733125905</v>
+        <v>0.9592481874906587</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.588883395871006</v>
+        <v>1.364370869832848</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9592481874906587</v>
+        <v>36</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.364370869832848</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.688789520939887</v>
       </c>
     </row>
@@ -4456,72 +4420,66 @@
         <v>3.855728145141834e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.008410908076778856</v>
+        <v>1.556435762035737e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.5841380708116306</v>
+        <v>1.569780398945463e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.556435762035737e-07</v>
+        <v>-0.05785581450743371</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.569780398945463e-06</v>
+        <v>0.1270158403184121</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05785581450743371</v>
+        <v>0.01946344484442175</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1270158403184121</v>
+        <v>1.891232093987843</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01946344484442175</v>
+        <v>2.224390204992401</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.884365152193763</v>
+        <v>4.96642053454776</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.224390204992401</v>
+        <v>5.467237104395064e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.96642053454776</v>
+        <v>2255820299.272982</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.467237104395064e-17</v>
+        <v>5.304812834912241e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2255820299.272982</v>
+        <v>278.2126735113561</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.304812834912241e-08</v>
+        <v>6.168148383458482e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>278.2126735113561</v>
+        <v>8.954612571375646</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>6.168148383458482e-05</v>
+        <v>1.820539630108234</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.954612571375646</v>
+        <v>0.004945935104600348</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.820539630108234</v>
+        <v>4.79509824418092</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.004945935104600348</v>
+        <v>0.9600686520000282</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.79509824418092</v>
+        <v>1.327102605404234</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9600686520000282</v>
+        <v>35</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.327102605404234</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>2.366558102828479</v>
       </c>
     </row>
@@ -4536,72 +4494,66 @@
         <v>3.919059016023898e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.05288811051953507</v>
+        <v>1.640311873344094e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.5186346711900445</v>
+        <v>1.567352247650485e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.640311873344094e-07</v>
+        <v>-0.0665379896267138</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.567352247650485e-06</v>
+        <v>0.1137686917926524</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0665379896267138</v>
+        <v>0.01736284038704672</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1137686917926524</v>
+        <v>1.890470666709954</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01736284038704672</v>
+        <v>2.153353391711085</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.890695248556981</v>
+        <v>4.735300096520176</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.153353391711085</v>
+        <v>7.029489296613213e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.735300096520176</v>
+        <v>1729043832.908425</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.029489296613213e-17</v>
+        <v>6.923850998558828e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1729043832.908425</v>
+        <v>210.1530901506043</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.923850998558828e-08</v>
+        <v>5.152167150440147e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>210.1530901506043</v>
+        <v>7.298168439794483</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>5.152167150440147e-05</v>
+        <v>2.084770631097433</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.298168439794483</v>
+        <v>0.002744212317673375</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2.084770631097433</v>
+        <v>4.919027911300548</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.002744212317673375</v>
+        <v>0.9607129064832717</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.919027911300548</v>
+        <v>1.298640138314468</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9607129064832717</v>
+        <v>35</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.298640138314468</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.179040474691531</v>
       </c>
     </row>
@@ -4616,72 +4568,66 @@
         <v>3.968623100332914e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1546615182182676</v>
+        <v>1.739673169385512e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.4500564906203373</v>
+        <v>1.564594002701654e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.739673169385512e-07</v>
+        <v>-0.07273245392369584</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.564594002701654e-06</v>
+        <v>0.1102796865125015</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.07273245392369584</v>
+        <v>0.01744883813690794</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1102796865125015</v>
+        <v>1.751539379487644</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01744883813690794</v>
+        <v>1.361666061539814</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.787994883760479</v>
+        <v>28.06456488974229</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.361666061539814</v>
+        <v>3.140543557709781e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>28.06456488974229</v>
+        <v>3465273898.332128</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.140543557709781e-16</v>
+        <v>3.155333245714443e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>3465273898.332128</v>
+        <v>3771.203392599068</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.155333245714443e-08</v>
+        <v>6.695607283598898e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3771.203392599068</v>
+        <v>9.64410182892817</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>6.695607283598898e-05</v>
+        <v>1.230883806593572</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.64410182892817</v>
+        <v>0.006227497297388127</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.230883806593572</v>
+        <v>4.558814357828814</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.006227497297388127</v>
+        <v>0.9600696909143597</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.558814357828814</v>
+        <v>0.808438268630951</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9600696909143597</v>
+        <v>38</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.808438268630951</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.877433786858195</v>
       </c>
     </row>
@@ -4696,72 +4642,66 @@
         <v>4.017869100925991e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2942464240833582</v>
+        <v>1.791227378871316e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.3993898498206581</v>
+        <v>1.561643196949099e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.791227378871316e-07</v>
+        <v>-0.0743030043109148</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.561643196949099e-06</v>
+        <v>0.1088378176214897</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0743030043109148</v>
+        <v>0.01736651332151841</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1088378176214897</v>
+        <v>1.731881027386516</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01736651332151841</v>
+        <v>1.351504429662152</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.755962984675801</v>
+        <v>22.31849762550194</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.351504429662152</v>
+        <v>4.965826419008174e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>22.31849762550194</v>
+        <v>2191284390.434523</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.965826419008174e-16</v>
+        <v>4.989315997539866e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2191284390.434523</v>
+        <v>2384.454418271438</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.989315997539866e-08</v>
+        <v>0.0001229808996165138</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>2384.454418271438</v>
+        <v>8.188024056265503</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001229808996165138</v>
+        <v>2.271069770339349</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.188024056265503</v>
+        <v>0.008245099206250739</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.271069770339349</v>
+        <v>5.097083838656865</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008245099206250739</v>
+        <v>0.9576027747565002</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.097083838656865</v>
+        <v>1.009924629297182</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9576027747565002</v>
+        <v>37</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.009924629297182</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.832000284474316</v>
       </c>
     </row>
@@ -5138,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.626547421976933</v>
+        <v>1.569638530230656</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.505643265737818</v>
@@ -5227,7 +5167,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.647229859346337</v>
+        <v>1.570020993624995</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.370808717320785</v>
@@ -5316,7 +5256,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.647766626350939</v>
+        <v>1.569289652527563</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.322253557521611</v>
@@ -5405,7 +5345,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.679496993070933</v>
+        <v>1.607630088643248</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.910782522246846</v>
@@ -5494,7 +5434,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.684786380237007</v>
+        <v>1.610931548351367</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.94230758520401</v>
@@ -5583,7 +5523,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.680298055610668</v>
+        <v>1.60374412564997</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.35822712160158</v>
@@ -5672,7 +5612,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.677209370260566</v>
+        <v>1.605575967971995</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.028198989967757</v>
@@ -5761,7 +5701,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.679165569186111</v>
+        <v>1.607530631003509</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.096344315778098</v>
@@ -5850,7 +5790,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.690836052334864</v>
+        <v>1.621574600366574</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.00535730117501</v>
@@ -5939,7 +5879,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660928930317155</v>
+        <v>1.60054586583587</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.609008967930867</v>
@@ -6028,7 +5968,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.659292791757097</v>
+        <v>1.600197622236039</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.541987074307629</v>
@@ -6117,7 +6057,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.664923500212425</v>
+        <v>1.607113109450349</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.501500087738954</v>
@@ -6206,7 +6146,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.658380912302442</v>
+        <v>1.607594130888968</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.608073896828667</v>
@@ -6295,7 +6235,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.681039865440536</v>
+        <v>1.643408855009787</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.615426102080191</v>
@@ -6384,7 +6324,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.704415048465711</v>
+        <v>1.67780964114194</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.769060514021792</v>
@@ -6473,7 +6413,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.69008547269475</v>
+        <v>1.66768476768553</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.784740741265974</v>
@@ -6562,7 +6502,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.693293270619636</v>
+        <v>1.670357391496511</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.803004835826567</v>
@@ -6651,7 +6591,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.689184666412824</v>
+        <v>1.6629755896645</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.850401774649643</v>
@@ -6740,7 +6680,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.690559446712928</v>
+        <v>1.661513555167592</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.908463410886947</v>
@@ -6829,7 +6769,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.681331018036304</v>
+        <v>1.655360956629527</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.861796536980538</v>
@@ -6918,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.561710361155012</v>
+        <v>1.528857036983702</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.749226847264647</v>
@@ -7007,7 +6947,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.464003585477985</v>
+        <v>1.473379984036081</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.748754517991929</v>
@@ -7096,7 +7036,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.45410965965261</v>
+        <v>1.465559716539532</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.760695477801357</v>
@@ -7185,7 +7125,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.45097138869139</v>
+        <v>1.459751897627524</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.755314948085927</v>
@@ -7274,7 +7214,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.461430878106645</v>
+        <v>1.469377588158904</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.752249666532552</v>
@@ -7363,7 +7303,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.459177983798992</v>
+        <v>1.467644056046183</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.753157357816252</v>
@@ -7452,7 +7392,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.456270286416161</v>
+        <v>1.46186602940649</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.765670018233705</v>
@@ -7541,7 +7481,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.455632409429945</v>
+        <v>1.459502354821443</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.750146230400567</v>
@@ -7630,7 +7570,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.439719855447878</v>
+        <v>1.438115566841754</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.713114294585956</v>
@@ -7719,7 +7659,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.410130950226185</v>
+        <v>1.396775650114021</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.688214278992789</v>
@@ -7808,7 +7748,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.411237616657119</v>
+        <v>1.395179442973436</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.689973069445238</v>
@@ -7897,7 +7837,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.407933942981036</v>
+        <v>1.393547345829421</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.662075624872469</v>
@@ -7986,7 +7926,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.396448742947453</v>
+        <v>1.383631325768987</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.650697063519769</v>
@@ -8075,7 +8015,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.394026975239086</v>
+        <v>1.385637102165628</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.660224506209066</v>
@@ -8164,7 +8104,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.405622124001358</v>
+        <v>1.395564830963659</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.630428683895966</v>
@@ -8253,7 +8193,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.575310850819841</v>
+        <v>1.541635405682933</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.651869489374911</v>
@@ -8342,7 +8282,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.669187778930942</v>
+        <v>1.615596044787159</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.416724436665556</v>
@@ -8431,7 +8371,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.70064039584758</v>
+        <v>1.642672014911442</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.640737504676399</v>
@@ -8520,7 +8460,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.697091467459278</v>
+        <v>1.639763542319392</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.389392956186168</v>
@@ -8609,7 +8549,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.6983353057115</v>
+        <v>1.647724430103877</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.817603533250318</v>
@@ -8698,7 +8638,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.695785450668482</v>
+        <v>1.644146298224534</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.688804504827264</v>
@@ -8787,7 +8727,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.693016499794885</v>
+        <v>1.647054499090684</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.342938620243554</v>
@@ -8876,7 +8816,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.702069519786747</v>
+        <v>1.653747483216693</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.806466562583423</v>
@@ -8965,7 +8905,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.717678789092123</v>
+        <v>1.674251838652155</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.693942972628871</v>
@@ -9054,7 +8994,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.71916420630568</v>
+        <v>1.680350895903602</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.912170267450886</v>
@@ -9143,7 +9083,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.728773970638059</v>
+        <v>1.693335294251186</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.391301128417723</v>
@@ -9232,7 +9172,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.728984485594594</v>
+        <v>1.697363206938119</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.757000842094612</v>
@@ -9321,7 +9261,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.730824953244488</v>
+        <v>1.697523130265236</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.103954368205175</v>
@@ -9410,7 +9350,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.719561852231528</v>
+        <v>1.685383062726263</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.212477702480685</v>
@@ -9499,7 +9439,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.709888715598896</v>
+        <v>1.675234250860358</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.053712406500454</v>
@@ -9588,7 +9528,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.705792748594209</v>
+        <v>1.670760874577288</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.634665762401989</v>
@@ -9677,7 +9617,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.709607245299212</v>
+        <v>1.675601378335689</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.552694525727026</v>
@@ -9766,7 +9706,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.723584381291131</v>
+        <v>1.691663836412527</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.290537447282379</v>
@@ -10052,7 +9992,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.67124740803154</v>
+        <v>1.664395421037837</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.517416024572103</v>
@@ -10141,7 +10081,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.64882352184156</v>
+        <v>1.622842980903113</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.03269972955999</v>
@@ -10230,7 +10170,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.647299588654514</v>
+        <v>1.608799716382413</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.222082318760511</v>
@@ -10319,7 +10259,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.638221636287619</v>
+        <v>1.599675477296529</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.334597961318439</v>
@@ -10408,7 +10348,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.651993561885143</v>
+        <v>1.625611512649432</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.976499648620362</v>
@@ -10497,7 +10437,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.647614421450826</v>
+        <v>1.616654839776392</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.352231361727219</v>
@@ -10586,7 +10526,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.655748829250874</v>
+        <v>1.620076777986442</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.294819394734136</v>
@@ -10675,7 +10615,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.654434602379897</v>
+        <v>1.616979572539208</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.224446268032009</v>
@@ -10764,7 +10704,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.675517770467231</v>
+        <v>1.633276120452988</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.2257728389519</v>
@@ -10853,7 +10793,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.687676842109473</v>
+        <v>1.647865225626038</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.009419207150635</v>
@@ -10942,7 +10882,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.699763282909897</v>
+        <v>1.661407144754453</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.438348897820445</v>
@@ -11031,7 +10971,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.703133097804726</v>
+        <v>1.661406925599645</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.383140484727464</v>
@@ -11120,7 +11060,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.702318048313069</v>
+        <v>1.662500554560865</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.998123524098857</v>
@@ -11209,7 +11149,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.728404794507221</v>
+        <v>1.692861649765612</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.158372262130042</v>
@@ -11298,7 +11238,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.765544293550543</v>
+        <v>1.73034594727599</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.194227974367806</v>
@@ -11387,7 +11327,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.756108982828319</v>
+        <v>1.725558492944481</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.206953457233331</v>
@@ -11476,7 +11416,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.745874937690624</v>
+        <v>1.709071402480745</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.697545670844786</v>
@@ -11565,7 +11505,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.757176351394133</v>
+        <v>1.73140816628203</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.532055808542938</v>
@@ -11654,7 +11594,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.76667454185446</v>
+        <v>1.735945163293592</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.589614824910568</v>
@@ -11743,7 +11683,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.774005697646295</v>
+        <v>1.743089219493799</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.695157023107551</v>
@@ -11832,7 +11772,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.775437852636584</v>
+        <v>1.727047675957206</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.195518727633737</v>
@@ -11921,7 +11861,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.700764685832924</v>
+        <v>1.684157211839989</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.184198675297933</v>
@@ -12010,7 +11950,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.702706933504346</v>
+        <v>1.691047124448979</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.191934403779769</v>
@@ -12099,7 +12039,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.702744235912208</v>
+        <v>1.692393053619944</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.196749188870072</v>
@@ -12188,7 +12128,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.698338477910409</v>
+        <v>1.687384325691174</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.188816915139601</v>
@@ -12277,7 +12217,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.693292737987443</v>
+        <v>1.680163777850715</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.176034690712807</v>
@@ -12366,7 +12306,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.690318902933745</v>
+        <v>1.675479475781488</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.210372456578517</v>
@@ -12455,7 +12395,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.691511338506578</v>
+        <v>1.674102845500304</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.164521390602316</v>
@@ -12544,7 +12484,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.671808021843013</v>
+        <v>1.649877931753987</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.116370050686125</v>
@@ -12633,7 +12573,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.641137329087048</v>
+        <v>1.61528316202549</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.05978222509178</v>
@@ -12722,7 +12662,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.621277268269445</v>
+        <v>1.594913784589783</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.053448262808908</v>
@@ -12811,7 +12751,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.641449197197629</v>
+        <v>1.619782238314643</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.123476847101132</v>
@@ -12900,7 +12840,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.615889178150606</v>
+        <v>1.589131793462383</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.965735352033097</v>
@@ -12989,7 +12929,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.616007450181276</v>
+        <v>1.594522595421525</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.985941472790291</v>
@@ -13078,7 +13018,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.613074642242899</v>
+        <v>1.588501365552313</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.9683895662524</v>
@@ -13167,7 +13107,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.686689412026173</v>
+        <v>1.66138935551998</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.045851298738288</v>
@@ -13256,7 +13196,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.71060585369436</v>
+        <v>1.683711587801954</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.594316396631921</v>
@@ -13345,7 +13285,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.699818414563402</v>
+        <v>1.66848891388797</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.372939978013533</v>
@@ -13434,7 +13374,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.706566014853639</v>
+        <v>1.681508271840197</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.44013626198039</v>
@@ -13523,7 +13463,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.704351142731906</v>
+        <v>1.675533475353115</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.025090878966241</v>
@@ -13612,7 +13552,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.698148139168954</v>
+        <v>1.667826305840413</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.368868785629664</v>
@@ -13701,7 +13641,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.69543054626881</v>
+        <v>1.668814904332026</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.220554023052804</v>
@@ -13790,7 +13730,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.701097669040877</v>
+        <v>1.675167899053858</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.540595474138459</v>
@@ -13879,7 +13819,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.725711265187768</v>
+        <v>1.704064130858554</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.623679902233642</v>
@@ -13968,7 +13908,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.731126538548242</v>
+        <v>1.712285240554519</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.393493282748322</v>
@@ -14057,7 +13997,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.763051735918876</v>
+        <v>1.745789981819998</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.413956477401188</v>
@@ -14146,7 +14086,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.757601592957295</v>
+        <v>1.739165408030222</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.498064610928516</v>
@@ -14235,7 +14175,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.762190838013426</v>
+        <v>1.746763870122242</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.440502432771655</v>
@@ -14324,7 +14264,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.753802085536396</v>
+        <v>1.740007789011768</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.396558284567584</v>
@@ -14413,7 +14353,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.756417314110466</v>
+        <v>1.746551277583474</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.519958366738168</v>
@@ -14502,7 +14442,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.763325099625219</v>
+        <v>1.752005904269813</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.604379611279544</v>
@@ -14591,7 +14531,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.774820281241997</v>
+        <v>1.758955614030481</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.190945046278702</v>
@@ -14680,7 +14620,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.78964846821367</v>
+        <v>1.775758281298004</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.564965398247077</v>
@@ -14966,7 +14906,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.646391073436054</v>
+        <v>1.637074758340809</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.746010984524224</v>
@@ -15055,7 +14995,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.598968982314692</v>
+        <v>1.578892299805132</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.356284958229662</v>
@@ -15144,7 +15084,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.581119350717801</v>
+        <v>1.558965798088585</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.659048008132339</v>
@@ -15233,7 +15173,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.570835308028741</v>
+        <v>1.550388653538891</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.686510121199688</v>
@@ -15322,7 +15262,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.577641696764813</v>
+        <v>1.558360217840776</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.727116374923346</v>
@@ -15411,7 +15351,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.574220094386047</v>
+        <v>1.554219668467606</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.640033872395937</v>
@@ -15500,7 +15440,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.569156641241977</v>
+        <v>1.546920223447882</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.668819959379214</v>
@@ -15589,7 +15529,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.56362160263918</v>
+        <v>1.541914179207708</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.699125889714211</v>
@@ -15678,7 +15618,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.557071786427255</v>
+        <v>1.533442625108985</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.747619871947974</v>
@@ -15767,7 +15707,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.563644494949162</v>
+        <v>1.541323490197906</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.497827381825166</v>
@@ -15856,7 +15796,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.544442572247975</v>
+        <v>1.526573752104598</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.46725012398693</v>
@@ -15945,7 +15885,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.54580133995223</v>
+        <v>1.530570176211675</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.525663929796912</v>
@@ -16034,7 +15974,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.560074477135277</v>
+        <v>1.548656499121143</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.72329194552653</v>
@@ -16123,7 +16063,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.596922167717473</v>
+        <v>1.595822532388978</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.842473035121489</v>
@@ -16212,7 +16152,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.630034083686472</v>
+        <v>1.630728821607943</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.480219258564137</v>
@@ -16301,7 +16241,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.61597016037492</v>
+        <v>1.622863847263115</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.474064066478959</v>
@@ -16390,7 +16330,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.636181476366371</v>
+        <v>1.638226685744605</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.336268942381696</v>
@@ -16479,7 +16419,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.622757995281109</v>
+        <v>1.627548975851123</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.627825822147557</v>
@@ -16568,7 +16508,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.623587975518318</v>
+        <v>1.629672415973378</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.663695761967545</v>
@@ -16657,7 +16597,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.624036551338545</v>
+        <v>1.630778289274067</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.677717958545824</v>
@@ -16746,7 +16686,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.583196790622986</v>
+        <v>1.576540933177905</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.072509851993936</v>
@@ -16835,7 +16775,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525477953981173</v>
+        <v>1.542783498745705</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.100102843329072</v>
@@ -16924,7 +16864,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.520666930944492</v>
+        <v>1.538683304363321</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.100220695253077</v>
@@ -17013,7 +16953,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.515359494536884</v>
+        <v>1.533282976457486</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.07877097150655</v>
@@ -17102,7 +17042,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.504950023562796</v>
+        <v>1.523941121974825</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.093287670341303</v>
@@ -17191,7 +17131,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.512715164854512</v>
+        <v>1.532479160313947</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.117837041173162</v>
@@ -17280,7 +17220,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.514332518651053</v>
+        <v>1.531080153353615</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.079145076490293</v>
@@ -17369,7 +17309,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.507473852060648</v>
+        <v>1.519526655603265</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.029271957728722</v>
@@ -17458,7 +17398,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.468652643196497</v>
+        <v>1.474414883259305</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.027912654407132</v>
@@ -17547,7 +17487,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.427420714689193</v>
+        <v>1.426310349588622</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.819556260669756</v>
@@ -17636,7 +17576,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.425813360389446</v>
+        <v>1.416411595410722</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.903624728368465</v>
@@ -17725,7 +17665,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.424795290017461</v>
+        <v>1.419429298902493</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.975854416415834</v>
@@ -17814,7 +17754,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.419217389341589</v>
+        <v>1.416669468137378</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.885499266659667</v>
@@ -17903,7 +17843,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.424282801307463</v>
+        <v>1.423621931067106</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.858330299327134</v>
@@ -17992,7 +17932,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.425960033900758</v>
+        <v>1.426034522657954</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.846779090756123</v>
@@ -18081,7 +18021,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.510430774199042</v>
+        <v>1.50705769144998</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.813036850818474</v>
@@ -18170,7 +18110,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.585336998494778</v>
+        <v>1.579360233173923</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.074351845355958</v>
@@ -18259,7 +18199,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.600088713492915</v>
+        <v>1.592824414592587</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.947965921097648</v>
@@ -18348,7 +18288,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.614628682063288</v>
+        <v>1.607258341305086</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.679857018003494</v>
@@ -18437,7 +18377,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.642587616871461</v>
+        <v>1.628953094979317</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.143778547048272</v>
@@ -18526,7 +18466,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.637764207505533</v>
+        <v>1.62820168011682</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.186226043921862</v>
@@ -18615,7 +18555,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.646458126073521</v>
+        <v>1.639789186169183</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.261773835272043</v>
@@ -18704,7 +18644,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.664824785969354</v>
+        <v>1.664723437617873</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.020448450959197</v>
@@ -18793,7 +18733,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.682618336805688</v>
+        <v>1.682112342281687</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.223036533099983</v>
@@ -18882,7 +18822,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.683638518932198</v>
+        <v>1.689088716731776</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.275103452889073</v>
@@ -18971,7 +18911,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.708676629031898</v>
+        <v>1.707971219539685</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.447739300675793</v>
@@ -19060,7 +19000,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.725079663549096</v>
+        <v>1.721518231847408</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.286929078373542</v>
@@ -19149,7 +19089,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.743064084176029</v>
+        <v>1.737596320260331</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.345961568899138</v>
@@ -19238,7 +19178,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.761578664216648</v>
+        <v>1.759167831266627</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.521688717898282</v>
@@ -19327,7 +19267,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.785311439547403</v>
+        <v>1.781522115313723</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.448286949285153</v>
@@ -19416,7 +19356,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.782665591658716</v>
+        <v>1.780591473446735</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.597676188816306</v>
@@ -19505,7 +19445,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.768327432007959</v>
+        <v>1.769314262789539</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.534360606661556</v>
@@ -19594,7 +19534,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.775507007514972</v>
+        <v>1.77586937966054</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.81276206611181</v>
@@ -19880,7 +19820,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.715778052477506</v>
+        <v>1.694285228963614</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.645734340224043</v>
@@ -19969,7 +19909,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.707973187689207</v>
+        <v>1.6900049881921</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.665973588468926</v>
@@ -20058,7 +19998,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.685892898016334</v>
+        <v>1.654614199109989</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.165795755258581</v>
@@ -20147,7 +20087,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.671716037478896</v>
+        <v>1.633805936648904</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.012544924407716</v>
@@ -20236,7 +20176,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.671449780592306</v>
+        <v>1.628009930343971</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.80554525127845</v>
@@ -20325,7 +20265,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.670467918132059</v>
+        <v>1.620350203967458</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.082846545215834</v>
@@ -20414,7 +20354,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.67479355362362</v>
+        <v>1.622962368208962</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.954075960456551</v>
@@ -20503,7 +20443,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.672833166885396</v>
+        <v>1.622291792050003</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.894451548485652</v>
@@ -20592,7 +20532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.688044739940197</v>
+        <v>1.636385598877172</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.812412970833859</v>
@@ -20681,7 +20621,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.697319604849578</v>
+        <v>1.64727010333488</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.990654857887372</v>
@@ -20770,7 +20710,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.704231825779029</v>
+        <v>1.658929625638165</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.998769764119103</v>
@@ -20859,7 +20799,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.687143978473346</v>
+        <v>1.647980637485174</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.138483119158269</v>
@@ -20948,7 +20888,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.727798054044122</v>
+        <v>1.700682051754615</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.631313705035748</v>
@@ -21037,7 +20977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.775614393459608</v>
+        <v>1.757182581715547</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.802699584871211</v>
@@ -21126,7 +21066,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.827850224941042</v>
+        <v>1.817408394755947</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.430509058486993</v>
@@ -21215,7 +21155,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.81123550082304</v>
+        <v>1.805087531566814</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.445428513605743</v>
@@ -21304,7 +21244,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.815419629761476</v>
+        <v>1.804075020444238</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.507510140327263</v>
@@ -21393,7 +21333,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.820976924438189</v>
+        <v>1.811283207464903</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.514023399048852</v>
@@ -21482,7 +21422,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.816810481851262</v>
+        <v>1.813292324702798</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.5419741878987</v>
@@ -21571,7 +21511,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.816163421627187</v>
+        <v>1.811805137608139</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.515526610975266</v>
@@ -21660,7 +21600,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.758841990126079</v>
+        <v>1.749857206603077</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.270463331446242</v>
@@ -21749,7 +21689,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.692236677199067</v>
+        <v>1.713131149305628</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.274549681114456</v>
@@ -21838,7 +21778,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.685299225896921</v>
+        <v>1.709053419939899</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.305795730099081</v>
@@ -21927,7 +21867,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.682518277793128</v>
+        <v>1.707640316431317</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.285229450864291</v>
@@ -22016,7 +21956,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.678971846504587</v>
+        <v>1.703356410973156</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.260523249215551</v>
@@ -22105,7 +22045,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.678584707875218</v>
+        <v>1.701676867163432</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.271566645150522</v>
@@ -22194,7 +22134,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.684032742702831</v>
+        <v>1.704265683954395</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.243355583098334</v>
@@ -22283,7 +22223,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.661121008511774</v>
+        <v>1.677964478388783</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.125193889980347</v>
@@ -22372,7 +22312,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.610662978129245</v>
+        <v>1.620081049093362</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.188022348400685</v>
@@ -22461,7 +22401,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.508322915599415</v>
+        <v>1.507134056989644</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.790771990168017</v>
@@ -22550,7 +22490,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.501065674630475</v>
+        <v>1.495506269456332</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.875261636060242</v>
@@ -22639,7 +22579,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.499281130800999</v>
+        <v>1.498028844558591</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.915341458405764</v>
@@ -22728,7 +22668,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.500106369227006</v>
+        <v>1.504371107556123</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.908225066990293</v>
@@ -22817,7 +22757,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.504374872417842</v>
+        <v>1.508597911610047</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.873344569008746</v>
@@ -22906,7 +22846,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.50505754772887</v>
+        <v>1.509129828565056</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.883688427405077</v>
@@ -22995,7 +22935,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.611171201928661</v>
+        <v>1.60188267999673</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.834206764578872</v>
@@ -23084,7 +23024,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.685918565528696</v>
+        <v>1.669912497515608</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.604640666952917</v>
@@ -23173,7 +23113,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.70324421157574</v>
+        <v>1.683434072753121</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.441866376047262</v>
@@ -23262,7 +23202,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.690166596285329</v>
+        <v>1.67429275596062</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.976666166436296</v>
@@ -23351,7 +23291,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.695690185340594</v>
+        <v>1.680238011767546</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.311595452867623</v>
@@ -23440,7 +23380,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.6922731787056</v>
+        <v>1.670562376718662</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.303430932175337</v>
@@ -23529,7 +23469,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.68991262139295</v>
+        <v>1.674139935019082</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.334793553113108</v>
@@ -23618,7 +23558,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.709011677872737</v>
+        <v>1.698323960594268</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.346738053602936</v>
@@ -23707,7 +23647,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.728041159549671</v>
+        <v>1.711793169353163</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.44466170263907</v>
@@ -23796,7 +23736,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.734933394345335</v>
+        <v>1.719676591510068</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.261711741502954</v>
@@ -23885,7 +23825,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.754163589381001</v>
+        <v>1.737867428515197</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.54884724025461</v>
@@ -23974,7 +23914,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.764135592436473</v>
+        <v>1.745337805992395</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.214756558053927</v>
@@ -24063,7 +24003,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.781503139876689</v>
+        <v>1.762673907111168</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.736940883427599</v>
@@ -24152,7 +24092,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.802056085639928</v>
+        <v>1.781664293095471</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.631428660042253</v>
@@ -24241,7 +24181,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.825419193669229</v>
+        <v>1.804929993879055</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.968875988515729</v>
@@ -24330,7 +24270,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.831296668184125</v>
+        <v>1.81459324151824</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.546429743825704</v>
@@ -24419,7 +24359,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.821798033145118</v>
+        <v>1.806984265289321</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.079909751650285</v>
@@ -24508,7 +24448,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.832808416892074</v>
+        <v>1.820265874345295</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.841479751375041</v>
@@ -24794,7 +24734,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.580613820717944</v>
+        <v>1.588406618438189</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.699357143454732</v>
@@ -24883,7 +24823,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.579771564132579</v>
+        <v>1.584039038461522</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.608974640456107</v>
@@ -24972,7 +24912,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.548732021086888</v>
+        <v>1.547618537499226</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.55197801938349</v>
@@ -25061,7 +25001,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.521733540165438</v>
+        <v>1.510590440661744</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.792779443517404</v>
@@ -25150,7 +25090,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.520032973800703</v>
+        <v>1.498947524113032</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.827924088947349</v>
@@ -25239,7 +25179,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.52934883904437</v>
+        <v>1.50505562225266</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.75771062342333</v>
@@ -25328,7 +25268,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.522330371622191</v>
+        <v>1.49662820018892</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.640859751385837</v>
@@ -25417,7 +25357,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.52807274935036</v>
+        <v>1.501927938632045</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.735349080694487</v>
@@ -25506,7 +25446,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.548307483149139</v>
+        <v>1.519467130990956</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.699992785345077</v>
@@ -25595,7 +25535,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.555593207253166</v>
+        <v>1.523386392394851</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.769216521906512</v>
@@ -25684,7 +25624,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.558652319779406</v>
+        <v>1.53590122589894</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.653935338557065</v>
@@ -25773,7 +25713,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.570046637622625</v>
+        <v>1.544181854946967</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.759545574406603</v>
@@ -25862,7 +25802,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.627154250925172</v>
+        <v>1.620692833214437</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.495917466902503</v>
@@ -25951,7 +25891,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.694284301124585</v>
+        <v>1.696451786900491</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.681736719932679</v>
@@ -26040,7 +25980,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.786890482745886</v>
+        <v>1.796530645818879</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.366258923767283</v>
@@ -26129,7 +26069,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.772623123223415</v>
+        <v>1.784827320636603</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.365544010781361</v>
@@ -26218,7 +26158,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.773885942531835</v>
+        <v>1.782733231625008</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.349494749371283</v>
@@ -26307,7 +26247,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.75926186083313</v>
+        <v>1.761476674127762</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.454541304510826</v>
@@ -26396,7 +26336,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.738630861125533</v>
+        <v>1.752231767647567</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.431660365171808</v>
@@ -26485,7 +26425,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.737248043605006</v>
+        <v>1.751558523908892</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.423598509218044</v>
@@ -26574,7 +26514,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.724074976759389</v>
+        <v>1.725321307341899</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.435185002687083</v>
@@ -26663,7 +26603,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.657084725715969</v>
+        <v>1.682213742364421</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.459804409515908</v>
@@ -26752,7 +26692,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.663054346767299</v>
+        <v>1.687256782715833</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.464826448660935</v>
@@ -26841,7 +26781,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.655066064107838</v>
+        <v>1.681663291099826</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.435635678000854</v>
@@ -26930,7 +26870,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.64826506494484</v>
+        <v>1.675821633656879</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.452714565147252</v>
@@ -27019,7 +26959,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.642064058583977</v>
+        <v>1.67011663860434</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.454135705798167</v>
@@ -27108,7 +27048,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.632141654056862</v>
+        <v>1.661827596062851</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.428277783185021</v>
@@ -27197,7 +27137,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.614213080068268</v>
+        <v>1.637563907763264</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.379554609216417</v>
@@ -27286,7 +27226,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.56392712381166</v>
+        <v>1.584007846703785</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.231394382025464</v>
@@ -27375,7 +27315,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.410908005215008</v>
+        <v>1.407262845700164</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.030045161970043</v>
@@ -27464,7 +27404,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.401687484475448</v>
+        <v>1.392201642413474</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.022858866229562</v>
@@ -27553,7 +27493,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.401510617064464</v>
+        <v>1.396527035418233</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.996952911698544</v>
@@ -27642,7 +27582,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.419439973673743</v>
+        <v>1.416976758773951</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.841313548206806</v>
@@ -27731,7 +27671,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.428410266190856</v>
+        <v>1.424684282895185</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.959141552544879</v>
@@ -27820,7 +27760,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.42769589410064</v>
+        <v>1.423087340059696</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.936395093036072</v>
@@ -27909,7 +27849,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.477555566765801</v>
+        <v>1.473814851265443</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.766302341623453</v>
@@ -27998,7 +27938,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.525521411767797</v>
+        <v>1.514407024497705</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.098593708303665</v>
@@ -28087,7 +28027,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.516156774663003</v>
+        <v>1.507113748335923</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.904640900006022</v>
@@ -28176,7 +28116,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531438616760313</v>
+        <v>1.518495952706543</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.01236798101278</v>
@@ -28265,7 +28205,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.550355561654058</v>
+        <v>1.531961608971685</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.968253468916038</v>
@@ -28354,7 +28294,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522766403649641</v>
+        <v>1.500501150589588</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.728153676201632</v>
@@ -28443,7 +28383,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.522524362261069</v>
+        <v>1.498327943070564</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.911824838503573</v>
@@ -28532,7 +28472,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.512920798689559</v>
+        <v>1.496905254940752</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.00505085806566</v>
@@ -28621,7 +28561,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.514364638110872</v>
+        <v>1.498335897397898</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.941070080314893</v>
@@ -28710,7 +28650,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.523936240787381</v>
+        <v>1.510449432780003</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.74779821430683</v>
@@ -28799,7 +28739,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.520041288970132</v>
+        <v>1.512291396316757</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.998357984715732</v>
@@ -28888,7 +28828,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.521281379479032</v>
+        <v>1.510128192316021</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.651933001214553</v>
@@ -28977,7 +28917,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.534184148376883</v>
+        <v>1.525445629290582</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.845494426345815</v>
@@ -29066,7 +29006,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.52449430781693</v>
+        <v>1.520315948869317</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.696485091572439</v>
@@ -29155,7 +29095,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.527708372032135</v>
+        <v>1.528806556838409</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.913330182768902</v>
@@ -29244,7 +29184,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.532859350250424</v>
+        <v>1.534990867212344</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.988384010202646</v>
@@ -29333,7 +29273,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.531487957692184</v>
+        <v>1.53423825323297</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.031274980696604</v>
@@ -29422,7 +29362,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.53160437195946</v>
+        <v>1.535896778125955</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.069193235686833</v>
@@ -29708,7 +29648,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.440066728592628</v>
+        <v>1.45049743188951</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.414274689773485</v>
@@ -29797,7 +29737,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.443366674124297</v>
+        <v>1.455808754569422</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.256723773920586</v>
@@ -29886,7 +29826,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.448034661426589</v>
+        <v>1.46054538053914</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.488856587710631</v>
@@ -29975,7 +29915,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.456539223843399</v>
+        <v>1.468192804366514</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.319945008267324</v>
@@ -30064,7 +30004,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.477917983099204</v>
+        <v>1.490935815920152</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.66325396072345</v>
@@ -30153,7 +30093,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.46895564939875</v>
+        <v>1.479945807822652</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.528102463715622</v>
@@ -30242,7 +30182,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.482022452096326</v>
+        <v>1.493003251203305</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.509717592312258</v>
@@ -30331,7 +30271,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.473509898483296</v>
+        <v>1.487293660639854</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.686535545686688</v>
@@ -30420,7 +30360,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.482241524286215</v>
+        <v>1.498379677024202</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.691251419304384</v>
@@ -30509,7 +30449,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.499980570636072</v>
+        <v>1.511312871627387</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.503044587066069</v>
@@ -30598,7 +30538,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.502361679436439</v>
+        <v>1.517650730718546</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.661794156165696</v>
@@ -30687,7 +30627,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.478314140320862</v>
+        <v>1.491185425433479</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.491513575729584</v>
@@ -30776,7 +30716,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.411705995049348</v>
+        <v>1.433009217006317</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.012957589526321</v>
@@ -30865,7 +30805,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.418482417206776</v>
+        <v>1.445328611212892</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.033606273648882</v>
@@ -30954,7 +30894,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.428395241785257</v>
+        <v>1.457080171024272</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.069760027494738</v>
@@ -31043,7 +30983,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.42216665161816</v>
+        <v>1.450188585336356</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.051479744701584</v>
@@ -31132,7 +31072,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.429041041210196</v>
+        <v>1.452902753332886</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.072392716794955</v>
@@ -31221,7 +31161,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.420237684119197</v>
+        <v>1.441218768416836</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.08977676265317</v>
@@ -31310,7 +31250,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.413755621367801</v>
+        <v>1.434001417644569</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.063755509574003</v>
@@ -31399,7 +31339,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.400783261562498</v>
+        <v>1.420343091891929</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.079633796322987</v>
@@ -31488,7 +31428,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.349202756701514</v>
+        <v>1.311338634759078</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.521905710066748</v>
@@ -31577,7 +31517,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.250791104477456</v>
+        <v>1.253945315954955</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.543280310489925</v>
@@ -31666,7 +31606,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.236976529422866</v>
+        <v>1.238502858651872</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.546418411916686</v>
@@ -31755,7 +31695,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.22862432776358</v>
+        <v>1.229076764982573</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.545923659980073</v>
@@ -31844,7 +31784,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.224952492628355</v>
+        <v>1.226444916732946</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.539728680117902</v>
@@ -31933,7 +31873,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.224175939366513</v>
+        <v>1.224317458581996</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.53282169800427</v>
@@ -32022,7 +31962,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.224809122333325</v>
+        <v>1.224716506609445</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.526993372408976</v>
@@ -32111,7 +32051,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.241713935124883</v>
+        <v>1.240278236762582</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.508938194956775</v>
@@ -32200,7 +32140,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.234609652652615</v>
+        <v>1.228078196336256</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.509004580319538</v>
@@ -32289,7 +32229,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.218758049849224</v>
+        <v>1.208206836917013</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.481474745204009</v>
@@ -32378,7 +32318,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.223849530388608</v>
+        <v>1.211752799651391</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.498138948405598</v>
@@ -32467,7 +32407,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.224938077101958</v>
+        <v>1.213892643541279</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.497552432685615</v>
@@ -32556,7 +32496,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.219959887234814</v>
+        <v>1.212186268331876</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.508654502997177</v>
@@ -32645,7 +32585,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.228486857343843</v>
+        <v>1.225934508475226</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.514061545078214</v>
@@ -32734,7 +32674,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.237007180501267</v>
+        <v>1.235323441161265</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.504206938552342</v>
@@ -32823,7 +32763,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.35384448440922</v>
+        <v>1.368891913798934</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.576874984194599</v>
@@ -32912,7 +32852,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.443759011992698</v>
+        <v>1.456984775372574</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.146864979370382</v>
@@ -33001,7 +32941,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.465877709827468</v>
+        <v>1.481864804023969</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.282884989028434</v>
@@ -33090,7 +33030,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.445438196061714</v>
+        <v>1.46766075635769</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.04617090643694</v>
@@ -33179,7 +33119,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.461502774621265</v>
+        <v>1.488376811191513</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.16064485244473</v>
@@ -33268,7 +33208,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.46255600247215</v>
+        <v>1.490279222019122</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.197655281427206</v>
@@ -33357,7 +33297,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.416888225702433</v>
+        <v>1.451367640795553</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.273681462309352</v>
@@ -33446,7 +33386,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.434049127010416</v>
+        <v>1.473494569529018</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.323153717940674</v>
@@ -33535,7 +33475,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.452540031481582</v>
+        <v>1.492533084052968</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.343662977335293</v>
@@ -33624,7 +33564,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.469320766919358</v>
+        <v>1.509598307764762</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.284548905628409</v>
@@ -33713,7 +33653,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.49763579580533</v>
+        <v>1.539244546421684</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.40339165097941</v>
@@ -33802,7 +33742,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.511358256590078</v>
+        <v>1.55427839176211</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.237302416167284</v>
@@ -33891,7 +33831,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.536635598190018</v>
+        <v>1.580278655867371</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.232566274559826</v>
@@ -33980,7 +33920,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.564508520970383</v>
+        <v>1.609991034135343</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.473772628283678</v>
@@ -34069,7 +34009,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.590233605605233</v>
+        <v>1.63524448782229</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.358499944778183</v>
@@ -34158,7 +34098,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.599071489825945</v>
+        <v>1.644167343498609</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.495589233659052</v>
@@ -34247,7 +34187,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.578317922356405</v>
+        <v>1.623177568729947</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.480997687245773</v>
@@ -34336,7 +34276,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.606487826419715</v>
+        <v>1.649844414970008</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.322141463063787</v>
